--- a/Data/Pinellas_LVI.xlsx
+++ b/Data/Pinellas_LVI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pinellasgov.sharepoint.com/sites/BCC-PW-ENVMT/Monitoring and Assessment/R/water_quality_dashboard/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{0EE07D52-1BC8-49B4-B399-B37402FE85B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C72F8500-1369-417E-939B-658E1862F867}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{0EE07D52-1BC8-49B4-B399-B37402FE85B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD5C213B-7AFF-4F88-9A98-C6D92FC5F8B7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65ED9341-D35D-4DA1-B1D8-A8F07CBE3DB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65ED9341-D35D-4DA1-B1D8-A8F07CBE3DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
   <si>
     <t>WBID</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">2,5,8,11 Sampled. Nuphar and Hydrilla recently treated. </t>
-  </si>
-  <si>
-    <t>1618_N</t>
   </si>
   <si>
     <t>Walsingham Reservoir</t>
@@ -662,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE617125-E89E-49FE-A597-6E460E3AD4EF}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,8 +1758,8 @@
       <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>73</v>
+      <c r="C34" s="4">
+        <v>1618</v>
       </c>
       <c r="D34" s="5">
         <v>41829</v>
@@ -1794,8 +1791,8 @@
       <c r="B35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
+      <c r="C35" s="4">
+        <v>1618</v>
       </c>
       <c r="D35" s="5">
         <v>42557</v>
@@ -1827,8 +1824,8 @@
       <c r="B36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>73</v>
+      <c r="C36" s="4">
+        <v>1618</v>
       </c>
       <c r="D36" s="5">
         <v>42965</v>
@@ -1860,8 +1857,8 @@
       <c r="B37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>73</v>
+      <c r="C37" s="4">
+        <v>1618</v>
       </c>
       <c r="D37" s="5">
         <v>43259</v>
@@ -1893,8 +1890,8 @@
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>73</v>
+      <c r="C38" s="4">
+        <v>1618</v>
       </c>
       <c r="D38" s="5">
         <v>43728</v>
@@ -1926,8 +1923,8 @@
       <c r="B39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>73</v>
+      <c r="C39" s="4">
+        <v>1618</v>
       </c>
       <c r="D39" s="5">
         <v>44069</v>
@@ -1959,8 +1956,8 @@
       <c r="B40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
+      <c r="C40" s="4">
+        <v>1618</v>
       </c>
       <c r="D40" s="5">
         <v>44390</v>
@@ -1992,8 +1989,8 @@
       <c r="B41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>73</v>
+      <c r="C41" s="4">
+        <v>1618</v>
       </c>
       <c r="D41" s="5">
         <v>44799</v>
@@ -2027,8 +2024,8 @@
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>73</v>
+      <c r="C42" s="4">
+        <v>1618</v>
       </c>
       <c r="D42" s="5">
         <v>45141</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>63</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>63</v>
@@ -2457,7 +2454,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>63</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>63</v>
@@ -2523,7 +2520,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>63</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>63</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>63</v>
@@ -2622,7 +2619,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>63</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>63</v>
@@ -2690,7 +2687,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>63</v>
@@ -2729,6 +2726,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B730D8DC4DFB374C886B31D158660B04" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7ff6c03879b1f266d5ea38ee21f191f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20a86c8e-58bd-487e-986c-19c6170a5cfd" xmlns:ns3="ebcefb84-3943-4c67-86e4-95e0d5522177" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ad91feefbbf9c03787a59590c558b3e" ns2:_="" ns3:_="">
     <xsd:import namespace="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
@@ -2935,15 +2941,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2956,13 +2953,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F311A33-CD5A-4B5C-B127-54C5233B4197}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E7F2B2-3E55-48C1-9268-6D7A8CE5CE71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E7F2B2-3E55-48C1-9268-6D7A8CE5CE71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F311A33-CD5A-4B5C-B127-54C5233B4197}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{343AD092-FFF4-4E5F-AD03-016E1E247E7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{343AD092-FFF4-4E5F-AD03-016E1E247E7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ebcefb84-3943-4c67-86e4-95e0d5522177"/>
+    <ds:schemaRef ds:uri="20a86c8e-58bd-487e-986c-19c6170a5cfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>